--- a/revised/Rawalpindi/Rawalpindi.xlsx
+++ b/revised/Rawalpindi/Rawalpindi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA15901-FF85-4B3C-B958-92A02AFA8567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2EB8C2-A80F-46CA-81AD-183F6C0C5485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -486,7 +486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,6 +664,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A8B7CA-1826-4E9A-8590-0EE933B14A74}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1215,8 +1218,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1347,15 +1350,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28029C6-2094-4F19-B9E2-17CE7D370274}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="46" thickTop="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
@@ -1365,40 +1368,63 @@
       <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" thickTop="1">
+      <c r="D1" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" thickTop="1">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="20">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" ht="31">
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
       <c r="C3" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31">
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
       <c r="C4" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="31">
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31">
       <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
       <c r="C5" s="19">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
     </row>

--- a/revised/Rawalpindi/Rawalpindi.xlsx
+++ b/revised/Rawalpindi/Rawalpindi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2EB8C2-A80F-46CA-81AD-183F6C0C5485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB509333-2328-4500-B7FD-1F4E311D6FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Autam</t>
   </si>
   <si>
-    <t>Passenager</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>No Damge to PR</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>Passenager train</t>
+  </si>
+  <si>
+    <t>Goods Train</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,6 +666,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1037,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1055,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5">
@@ -1218,8 +1221,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1352,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28029C6-2094-4F19-B9E2-17CE7D370274}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1360,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46" thickTop="1" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>7</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="20">
         <v>43</v>
@@ -1388,7 +1391,7 @@
     </row>
     <row r="3" spans="1:4" ht="31">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="17">
         <v>0</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="4" spans="1:4" ht="31">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="5" spans="1:4" ht="31">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1493,7 +1496,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1506,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1">
@@ -1624,118 +1627,139 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10E7A67-57A9-4BD7-B014-596055E03DF8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" thickTop="1" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" ht="46" thickTop="1" thickBot="1">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickTop="1">
+      <c r="A2" s="54">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="44">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44">
+        <v>16</v>
+      </c>
+      <c r="D2" s="44">
+        <v>8</v>
+      </c>
+      <c r="E2" s="45">
+        <v>2161000</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.5">
+      <c r="A3" s="61">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="42">
+        <v>5</v>
+      </c>
+      <c r="C3" s="42">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>3</v>
+      </c>
+      <c r="E3" s="43">
+        <v>346000</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.5">
+      <c r="A4" s="61">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="42">
+        <v>11</v>
+      </c>
+      <c r="C4" s="42">
+        <v>7</v>
+      </c>
+      <c r="D4" s="42">
+        <v>4</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1936000</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5">
+      <c r="A5" s="61">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="42">
         <v>18</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickTop="1">
-      <c r="A2" s="44">
-        <v>24</v>
-      </c>
-      <c r="B2" s="44">
-        <v>16</v>
-      </c>
-      <c r="C2" s="44">
+      <c r="C5" s="42">
+        <v>10</v>
+      </c>
+      <c r="D5" s="42">
         <v>8</v>
       </c>
-      <c r="D2" s="45">
-        <v>2161000</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.5">
-      <c r="A3" s="42">
-        <v>5</v>
-      </c>
-      <c r="B3" s="42">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43">
-        <v>346000</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.5">
-      <c r="A4" s="42">
-        <v>11</v>
-      </c>
-      <c r="B4" s="42">
-        <v>7</v>
-      </c>
-      <c r="C4" s="42">
-        <v>4</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1936000</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.5">
-      <c r="A5" s="42">
-        <v>18</v>
-      </c>
-      <c r="B5" s="42">
-        <v>10</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="E5" s="43">
+        <v>986000</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.5">
+      <c r="A6" s="61">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="42">
         <v>8</v>
-      </c>
-      <c r="D5" s="43">
-        <v>986000</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.5">
-      <c r="A6" s="42">
-        <v>8</v>
-      </c>
-      <c r="B6" s="42">
-        <v>4</v>
       </c>
       <c r="C6" s="42">
         <v>4</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
+        <v>4</v>
+      </c>
+      <c r="E6" s="43">
         <v>1713000</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.5">
-      <c r="A7" s="42">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5">
+      <c r="A7" s="41">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="42">
         <v>9</v>
       </c>
-      <c r="B7" s="42">
+      <c r="C7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="42">
+      <c r="D7" s="42">
         <v>6</v>
       </c>
-      <c r="D7" s="43">
+      <c r="E7" s="43">
         <v>20726000</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,16 +1784,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickTop="1">

--- a/revised/Rawalpindi/Rawalpindi.xlsx
+++ b/revised/Rawalpindi/Rawalpindi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB509333-2328-4500-B7FD-1F4E311D6FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45664EA-81D3-45C4-9723-DAE3F0E425A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Fire Accidents</t>
   </si>
   <si>
-    <t xml:space="preserve">Overshooting </t>
-  </si>
-  <si>
     <t>LLM  to RWP</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Goods Train</t>
+  </si>
+  <si>
+    <t>Overshooting</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1061,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5">
@@ -1363,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46" thickTop="1" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>7</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="20">
         <v>43</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="3" spans="1:4" ht="31">
       <c r="A3" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="17">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="4" spans="1:4" ht="31">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="5" spans="1:4" ht="31">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1">
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10E7A67-57A9-4BD7-B014-596055E03DF8}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/revised/Rawalpindi/Rawalpindi.xlsx
+++ b/revised/Rawalpindi/Rawalpindi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45664EA-81D3-45C4-9723-DAE3F0E425A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286157F-A84F-417A-82F7-96F673C7A191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10240" windowHeight="5030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -80,12 +80,6 @@
     <t>Cost of Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">No Casulties </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casulties </t>
-  </si>
-  <si>
     <t>No of Deaths</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>Overshooting</t>
+  </si>
+  <si>
+    <t>No Casualties</t>
+  </si>
+  <si>
+    <t>Casualties</t>
   </si>
 </sst>
 </file>
@@ -1033,14 +1033,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5">
@@ -1363,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46" thickTop="1" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>7</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="20">
         <v>43</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="3" spans="1:4" ht="31">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="4" spans="1:4" ht="31">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="5" spans="1:4" ht="31">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1">
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1784,16 +1784,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickTop="1">
